--- a/Team-Data/2011-12/4-14-2011-12.xlsx
+++ b/Team-Data/2011-12/4-14-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>2.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
@@ -780,16 +847,16 @@
         <v>25</v>
       </c>
       <c r="AP2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR2" t="n">
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
@@ -801,13 +868,13 @@
         <v>5</v>
       </c>
       <c r="AW2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX2" t="n">
         <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ2" t="n">
         <v>6</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -848,22 +915,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="n">
         <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>0.583</v>
+        <v>0.576</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J3" t="n">
         <v>77.09999999999999</v>
@@ -887,22 +954,22 @@
         <v>19.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.78</v>
+        <v>0.782</v>
       </c>
       <c r="R3" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="S3" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T3" t="n">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="U3" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="V3" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W3" t="n">
         <v>7.4</v>
@@ -917,19 +984,19 @@
         <v>20.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.7</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF3" t="n">
         <v>10</v>
@@ -938,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
@@ -965,34 +1032,34 @@
         <v>28</v>
       </c>
       <c r="AQ3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV3" t="n">
         <v>18</v>
       </c>
       <c r="AW3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY3" t="n">
         <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
         <v>24</v>
@@ -1001,7 +1068,7 @@
         <v>26</v>
       </c>
       <c r="BC3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-13.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1126,7 +1193,7 @@
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
         <v>30</v>
@@ -1156,13 +1223,13 @@
         <v>28</v>
       </c>
       <c r="AT4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
@@ -1171,10 +1238,10 @@
         <v>11</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA4" t="n">
         <v>11</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>7.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1302,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
@@ -1311,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
@@ -1326,7 +1393,7 @@
         <v>24</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>27</v>
@@ -1335,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1344,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="AV5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW5" t="n">
         <v>23</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -1394,55 +1461,55 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" t="n">
         <v>38</v>
       </c>
       <c r="G6" t="n">
-        <v>0.345</v>
+        <v>0.333</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="J6" t="n">
-        <v>81.3</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.424</v>
+        <v>0.422</v>
       </c>
       <c r="L6" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O6" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P6" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.717</v>
+        <v>0.714</v>
       </c>
       <c r="R6" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="S6" t="n">
         <v>29.7</v>
       </c>
       <c r="T6" t="n">
-        <v>42.5</v>
+        <v>42.7</v>
       </c>
       <c r="U6" t="n">
         <v>20.4</v>
@@ -1457,22 +1524,22 @@
         <v>4.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA6" t="n">
         <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-5.9</v>
+        <v>-6.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
@@ -1499,16 +1566,16 @@
         <v>13</v>
       </c>
       <c r="AM6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1520,10 +1587,10 @@
         <v>24</v>
       </c>
       <c r="AT6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV6" t="n">
         <v>26</v>
@@ -1544,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="BB6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC6" t="n">
         <v>27</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>1.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
         <v>12</v>
@@ -1666,7 +1733,7 @@
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
         <v>18</v>
@@ -1693,7 +1760,7 @@
         <v>27</v>
       </c>
       <c r="AQ7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
@@ -1866,7 +1933,7 @@
         <v>10</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -2018,28 +2085,28 @@
         <v>-5.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>22</v>
       </c>
       <c r="AF9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>25</v>
       </c>
       <c r="AJ9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
         <v>26</v>
@@ -2087,7 +2154,7 @@
         <v>16</v>
       </c>
       <c r="BA9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -2122,49 +2189,49 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" t="n">
         <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" t="n">
-        <v>0.373</v>
+        <v>0.379</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J10" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K10" t="n">
         <v>0.458</v>
       </c>
       <c r="L10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M10" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.391</v>
+        <v>0.389</v>
       </c>
       <c r="O10" t="n">
         <v>14.8</v>
       </c>
       <c r="P10" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.774</v>
+        <v>0.775</v>
       </c>
       <c r="R10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S10" t="n">
         <v>29.3</v>
@@ -2185,22 +2252,22 @@
         <v>5.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA10" t="n">
         <v>16.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3</v>
+        <v>-2.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2215,13 +2282,13 @@
         <v>21</v>
       </c>
       <c r="AI10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK10" t="n">
         <v>7</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>6</v>
       </c>
       <c r="AL10" t="n">
         <v>3</v>
@@ -2239,7 +2306,7 @@
         <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR10" t="n">
         <v>29</v>
@@ -2248,7 +2315,7 @@
         <v>27</v>
       </c>
       <c r="AT10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2257,10 +2324,10 @@
         <v>4</v>
       </c>
       <c r="AW10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY10" t="n">
         <v>13</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>0.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2412,7 +2479,7 @@
         <v>17</v>
       </c>
       <c r="AN11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
         <v>19</v>
@@ -2436,7 +2503,7 @@
         <v>12</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
         <v>18</v>
@@ -2454,7 +2521,7 @@
         <v>25</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC11" t="n">
         <v>16</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" t="n">
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.633</v>
+        <v>0.627</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2504,49 +2571,49 @@
         <v>35.4</v>
       </c>
       <c r="J12" t="n">
-        <v>80.59999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L12" t="n">
         <v>5.8</v>
       </c>
       <c r="M12" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="N12" t="n">
         <v>0.363</v>
       </c>
       <c r="O12" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="P12" t="n">
         <v>26.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.782</v>
+        <v>0.78</v>
       </c>
       <c r="R12" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="S12" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T12" t="n">
-        <v>43.5</v>
+        <v>43.3</v>
       </c>
       <c r="U12" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="V12" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W12" t="n">
         <v>7.8</v>
       </c>
       <c r="X12" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y12" t="n">
         <v>5.9</v>
@@ -2558,22 +2625,22 @@
         <v>21.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
         <v>5</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH12" t="n">
         <v>8</v>
@@ -2582,10 +2649,10 @@
         <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
         <v>19</v>
@@ -2603,13 +2670,13 @@
         <v>3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT12" t="n">
         <v>6</v>
@@ -2618,13 +2685,13 @@
         <v>30</v>
       </c>
       <c r="AV12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW12" t="n">
         <v>14</v>
       </c>
       <c r="AX12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY12" t="n">
         <v>27</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -2668,46 +2735,46 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" t="n">
         <v>23</v>
       </c>
       <c r="G13" t="n">
-        <v>0.617</v>
+        <v>0.61</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J13" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.454</v>
+        <v>0.452</v>
       </c>
       <c r="L13" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M13" t="n">
         <v>21.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O13" t="n">
         <v>15.8</v>
       </c>
       <c r="P13" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.679</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="R13" t="n">
         <v>12.2</v>
@@ -2737,16 +2804,16 @@
         <v>21.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2767,7 +2834,7 @@
         <v>16</v>
       </c>
       <c r="AK13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL13" t="n">
         <v>5</v>
@@ -2776,7 +2843,7 @@
         <v>5</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO13" t="n">
         <v>20</v>
@@ -2788,7 +2855,7 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS13" t="n">
         <v>25</v>
@@ -2803,22 +2870,22 @@
         <v>2</v>
       </c>
       <c r="AW13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX13" t="n">
         <v>22</v>
       </c>
       <c r="AY13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA13" t="n">
         <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BC13" t="n">
         <v>9</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>2.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2949,7 +3016,7 @@
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL14" t="n">
         <v>22</v>
@@ -3003,7 +3070,7 @@
         <v>16</v>
       </c>
       <c r="BC14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -3032,94 +3099,94 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" t="n">
         <v>24</v>
       </c>
       <c r="G15" t="n">
-        <v>0.593</v>
+        <v>0.586</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J15" t="n">
-        <v>82.40000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M15" t="n">
         <v>12.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.33</v>
+        <v>0.326</v>
       </c>
       <c r="O15" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P15" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.758</v>
+        <v>0.756</v>
       </c>
       <c r="R15" t="n">
         <v>12.5</v>
       </c>
       <c r="S15" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T15" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U15" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="V15" t="n">
         <v>14.5</v>
       </c>
       <c r="W15" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X15" t="n">
         <v>5.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="n">
         <v>19.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF15" t="n">
         <v>8</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH15" t="n">
         <v>14</v>
@@ -3128,7 +3195,7 @@
         <v>14</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="n">
         <v>16</v>
@@ -3140,16 +3207,16 @@
         <v>28</v>
       </c>
       <c r="AN15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR15" t="n">
         <v>5</v>
@@ -3164,19 +3231,19 @@
         <v>24</v>
       </c>
       <c r="AV15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY15" t="n">
         <v>22</v>
       </c>
       <c r="AZ15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA15" t="n">
         <v>18</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>6.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF16" t="n">
         <v>4</v>
@@ -3313,7 +3380,7 @@
         <v>24</v>
       </c>
       <c r="AK16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL16" t="n">
         <v>21</v>
@@ -3337,10 +3404,10 @@
         <v>24</v>
       </c>
       <c r="AS16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU16" t="n">
         <v>18</v>
@@ -3352,7 +3419,7 @@
         <v>3</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY16" t="n">
         <v>4</v>
@@ -3367,7 +3434,7 @@
         <v>4</v>
       </c>
       <c r="BC16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" t="n">
         <v>29</v>
       </c>
       <c r="F17" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="n">
-        <v>0.483</v>
+        <v>0.492</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
@@ -3414,34 +3481,34 @@
         <v>38.2</v>
       </c>
       <c r="J17" t="n">
-        <v>85.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K17" t="n">
         <v>0.445</v>
       </c>
       <c r="L17" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M17" t="n">
         <v>19.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O17" t="n">
         <v>16.1</v>
       </c>
       <c r="P17" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.774</v>
+        <v>0.778</v>
       </c>
       <c r="R17" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S17" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T17" t="n">
         <v>41.9</v>
@@ -3450,13 +3517,13 @@
         <v>23.9</v>
       </c>
       <c r="V17" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X17" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y17" t="n">
         <v>4.6</v>
@@ -3471,10 +3538,10 @@
         <v>99.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3498,22 +3565,22 @@
         <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN17" t="n">
         <v>14</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR17" t="n">
         <v>6</v>
@@ -3528,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="AV17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW17" t="n">
         <v>6</v>
@@ -3537,7 +3604,7 @@
         <v>17</v>
       </c>
       <c r="AY17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ17" t="n">
         <v>13</v>
@@ -3549,7 +3616,7 @@
         <v>5</v>
       </c>
       <c r="BC17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -3578,55 +3645,55 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" t="n">
         <v>25</v>
       </c>
       <c r="F18" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" t="n">
-        <v>0.41</v>
+        <v>0.417</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J18" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L18" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M18" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.336</v>
+        <v>0.335</v>
       </c>
       <c r="O18" t="n">
         <v>19.4</v>
       </c>
       <c r="P18" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.771</v>
+        <v>0.773</v>
       </c>
       <c r="R18" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S18" t="n">
         <v>31.5</v>
       </c>
       <c r="T18" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U18" t="n">
         <v>19.6</v>
@@ -3638,7 +3705,7 @@
         <v>6.8</v>
       </c>
       <c r="X18" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y18" t="n">
         <v>5.7</v>
@@ -3647,10 +3714,10 @@
         <v>18.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC18" t="n">
         <v>-1.5</v>
@@ -3674,7 +3741,7 @@
         <v>20</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK18" t="n">
         <v>26</v>
@@ -3695,7 +3762,7 @@
         <v>5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR18" t="n">
         <v>7</v>
@@ -3719,7 +3786,7 @@
         <v>26</v>
       </c>
       <c r="AY18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ18" t="n">
         <v>8</v>
@@ -3728,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="BB18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="n">
         <v>22</v>
       </c>
       <c r="F19" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>0.361</v>
+        <v>0.367</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,28 +3845,28 @@
         <v>34.3</v>
       </c>
       <c r="J19" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.425</v>
+        <v>0.426</v>
       </c>
       <c r="L19" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M19" t="n">
         <v>22.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.342</v>
+        <v>0.344</v>
       </c>
       <c r="O19" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P19" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R19" t="n">
         <v>12.1</v>
@@ -3814,7 +3881,7 @@
         <v>20.1</v>
       </c>
       <c r="V19" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W19" t="n">
         <v>7.6</v>
@@ -3823,19 +3890,19 @@
         <v>4.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z19" t="n">
         <v>19.2</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.5</v>
+        <v>93.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.3</v>
+        <v>-5.2</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -3844,7 +3911,7 @@
         <v>22</v>
       </c>
       <c r="AF19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG19" t="n">
         <v>24</v>
@@ -3853,7 +3920,7 @@
         <v>27</v>
       </c>
       <c r="AI19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ19" t="n">
         <v>20</v>
@@ -3868,7 +3935,7 @@
         <v>2</v>
       </c>
       <c r="AN19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
@@ -3877,7 +3944,7 @@
         <v>15</v>
       </c>
       <c r="AQ19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR19" t="n">
         <v>10</v>
@@ -3901,16 +3968,16 @@
         <v>28</v>
       </c>
       <c r="AY19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
         <v>29</v>
@@ -4050,7 +4117,7 @@
         <v>30</v>
       </c>
       <c r="AN20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO20" t="n">
         <v>26</v>
@@ -4065,7 +4132,7 @@
         <v>19</v>
       </c>
       <c r="AS20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
         <v>24</v>
@@ -4074,7 +4141,7 @@
         <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW20" t="n">
         <v>21</v>
@@ -4086,7 +4153,7 @@
         <v>25</v>
       </c>
       <c r="AZ20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA20" t="n">
         <v>26</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>3.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
@@ -4214,7 +4281,7 @@
         <v>15</v>
       </c>
       <c r="AH21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4223,7 +4290,7 @@
         <v>19</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL21" t="n">
         <v>7</v>
@@ -4247,7 +4314,7 @@
         <v>14</v>
       </c>
       <c r="AS21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT21" t="n">
         <v>14</v>
@@ -4256,7 +4323,7 @@
         <v>23</v>
       </c>
       <c r="AV21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW21" t="n">
         <v>2</v>
@@ -4268,13 +4335,13 @@
         <v>18</v>
       </c>
       <c r="AZ21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA21" t="n">
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC21" t="n">
         <v>6</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="n">
         <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>0.733</v>
+        <v>0.729</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4324,7 +4391,7 @@
         <v>37.4</v>
       </c>
       <c r="J22" t="n">
-        <v>79</v>
+        <v>78.8</v>
       </c>
       <c r="K22" t="n">
         <v>0.474</v>
@@ -4333,34 +4400,34 @@
         <v>7.2</v>
       </c>
       <c r="M22" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O22" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="P22" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.803</v>
+        <v>0.801</v>
       </c>
       <c r="R22" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S22" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T22" t="n">
-        <v>43.6</v>
+        <v>43.4</v>
       </c>
       <c r="U22" t="n">
         <v>18.5</v>
       </c>
       <c r="V22" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W22" t="n">
         <v>7.6</v>
@@ -4372,19 +4439,19 @@
         <v>4.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.1</v>
+        <v>102.9</v>
       </c>
       <c r="AC22" t="n">
         <v>6.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,16 +4463,16 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>10</v>
       </c>
       <c r="AJ22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL22" t="n">
         <v>10</v>
@@ -4414,7 +4481,7 @@
         <v>12</v>
       </c>
       <c r="AN22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4438,7 +4505,7 @@
         <v>29</v>
       </c>
       <c r="AV22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW22" t="n">
         <v>17</v>
@@ -4459,7 +4526,7 @@
         <v>2</v>
       </c>
       <c r="BC22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -4566,22 +4633,22 @@
         <v>1.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF23" t="n">
         <v>10</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ23" t="n">
         <v>29</v>
@@ -4614,7 +4681,7 @@
         <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>4.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4799,13 +4866,13 @@
         <v>9</v>
       </c>
       <c r="AU24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX24" t="n">
         <v>13</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" t="n">
         <v>31</v>
       </c>
       <c r="F25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" t="n">
-        <v>0.517</v>
+        <v>0.525</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
@@ -4870,46 +4937,46 @@
         <v>37.6</v>
       </c>
       <c r="J25" t="n">
-        <v>82.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L25" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M25" t="n">
         <v>19.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.342</v>
+        <v>0.345</v>
       </c>
       <c r="O25" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P25" t="n">
         <v>21.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R25" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S25" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T25" t="n">
         <v>41.6</v>
       </c>
       <c r="U25" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V25" t="n">
         <v>14</v>
       </c>
       <c r="W25" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X25" t="n">
         <v>5.6</v>
@@ -4924,22 +4991,22 @@
         <v>19.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
       </c>
       <c r="AF25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
         <v>30</v>
@@ -4948,22 +5015,22 @@
         <v>8</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM25" t="n">
         <v>14</v>
       </c>
       <c r="AN25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
         <v>22</v>
@@ -4975,16 +5042,16 @@
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV25" t="n">
         <v>6</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>7</v>
       </c>
       <c r="AW25" t="n">
         <v>27</v>
@@ -5002,7 +5069,7 @@
         <v>17</v>
       </c>
       <c r="BB25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC25" t="n">
         <v>19</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>0.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
@@ -5124,19 +5191,19 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK26" t="n">
         <v>18</v>
       </c>
       <c r="AL26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM26" t="n">
         <v>9</v>
@@ -5157,7 +5224,7 @@
         <v>18</v>
       </c>
       <c r="AS26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT26" t="n">
         <v>25</v>
@@ -5175,7 +5242,7 @@
         <v>16</v>
       </c>
       <c r="AY26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ26" t="n">
         <v>10</v>
@@ -5184,10 +5251,10 @@
         <v>13</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>-6.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
         <v>27</v>
@@ -5327,19 +5394,19 @@
         <v>28</v>
       </c>
       <c r="AO27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP27" t="n">
         <v>10</v>
       </c>
       <c r="AQ27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR27" t="n">
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT27" t="n">
         <v>7</v>
@@ -5366,7 +5433,7 @@
         <v>9</v>
       </c>
       <c r="BB27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.724</v>
+        <v>0.719</v>
       </c>
       <c r="H28" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I28" t="n">
         <v>38.9</v>
       </c>
       <c r="J28" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.472</v>
+        <v>0.471</v>
       </c>
       <c r="L28" t="n">
         <v>8.199999999999999</v>
@@ -5428,7 +5495,7 @@
         <v>21.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.389</v>
+        <v>0.387</v>
       </c>
       <c r="O28" t="n">
         <v>15.7</v>
@@ -5437,46 +5504,46 @@
         <v>21.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.739</v>
+        <v>0.737</v>
       </c>
       <c r="R28" t="n">
         <v>10.2</v>
       </c>
       <c r="S28" t="n">
-        <v>32.4</v>
+        <v>32.2</v>
       </c>
       <c r="T28" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U28" t="n">
         <v>22.6</v>
       </c>
       <c r="V28" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y28" t="n">
         <v>5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB28" t="n">
         <v>101.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK28" t="n">
         <v>3</v>
@@ -5515,25 +5582,25 @@
         <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV28" t="n">
         <v>3</v>
       </c>
       <c r="AW28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX28" t="n">
         <v>24</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -5658,19 +5725,19 @@
         <v>-3.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
         <v>25</v>
       </c>
       <c r="AF29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG29" t="n">
         <v>25</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
         <v>27</v>
@@ -5697,13 +5764,13 @@
         <v>17</v>
       </c>
       <c r="AQ29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR29" t="n">
         <v>22</v>
       </c>
       <c r="AS29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT29" t="n">
         <v>19</v>
@@ -5721,7 +5788,7 @@
         <v>18</v>
       </c>
       <c r="AY29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -5762,19 +5829,19 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" t="n">
         <v>31</v>
       </c>
       <c r="F30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" t="n">
-        <v>0.508</v>
+        <v>0.517</v>
       </c>
       <c r="H30" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I30" t="n">
         <v>38.1</v>
@@ -5792,25 +5859,25 @@
         <v>12.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.312</v>
+        <v>0.31</v>
       </c>
       <c r="O30" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P30" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="Q30" t="n">
         <v>0.751</v>
       </c>
       <c r="R30" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S30" t="n">
         <v>30.7</v>
       </c>
       <c r="T30" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U30" t="n">
         <v>21.7</v>
@@ -5831,13 +5898,13 @@
         <v>22</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -5876,7 +5943,7 @@
         <v>7</v>
       </c>
       <c r="AP30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ30" t="n">
         <v>18</v>
@@ -5891,7 +5958,7 @@
         <v>4</v>
       </c>
       <c r="AU30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" t="n">
         <v>14</v>
       </c>
       <c r="F31" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" t="n">
-        <v>0.233</v>
+        <v>0.237</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5962,7 +6029,7 @@
         <v>36.1</v>
       </c>
       <c r="J31" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K31" t="n">
         <v>0.437</v>
@@ -5977,28 +6044,28 @@
         <v>0.321</v>
       </c>
       <c r="O31" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P31" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.731</v>
+        <v>0.73</v>
       </c>
       <c r="R31" t="n">
         <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T31" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U31" t="n">
         <v>18.7</v>
       </c>
       <c r="V31" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W31" t="n">
         <v>7.7</v>
@@ -6016,13 +6083,13 @@
         <v>18.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.09999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="AC31" t="n">
         <v>-6.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6040,7 +6107,7 @@
         <v>19</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK31" t="n">
         <v>25</v>
@@ -6058,7 +6125,7 @@
         <v>22</v>
       </c>
       <c r="AP31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
         <v>26</v>
@@ -6067,16 +6134,16 @@
         <v>13</v>
       </c>
       <c r="AS31" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AT31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
       </c>
       <c r="AV31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-14-2011-12</t>
+          <t>2012-04-14</t>
         </is>
       </c>
     </row>
